--- a/data/camp-facilities/CampFacilities_2017_02.xlsx
+++ b/data/camp-facilities/CampFacilities_2017_02.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CampFacilities_2017_02" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="416">
   <si>
     <t>OBJECTID_1</t>
   </si>
@@ -158,1123 +158,1123 @@
     <t>Jordanian - Italian Hospital RMS</t>
   </si>
   <si>
+    <t>8:30am-3:00pm (Sun-Thu)</t>
+  </si>
+  <si>
+    <t>echo, gynaecologist, internal medicine, paediatrics, radiologist, surgeon</t>
+  </si>
+  <si>
+    <t>Community Center</t>
+  </si>
+  <si>
+    <t>Camp Facility with Health Services</t>
+  </si>
+  <si>
+    <t>UNFPA/Noor Hussein Foundation</t>
+  </si>
+  <si>
+    <t>JHAS RH &amp; Noor Hussein</t>
+  </si>
+  <si>
+    <t>مركز المراه نور الحسين</t>
+  </si>
+  <si>
+    <t>9:00am-4:00pm (Sun-Thu)</t>
+  </si>
+  <si>
+    <t>JHAS RH: ante and post-natal care. IFH/NHF: family planning, gender-based violence support, reproductive care.</t>
+  </si>
+  <si>
+    <t>IRD Community Center</t>
+  </si>
+  <si>
+    <t>Distribution Point</t>
+  </si>
+  <si>
+    <t>SCI</t>
+  </si>
+  <si>
+    <t>WFP Distribution Centre</t>
+  </si>
+  <si>
+    <t>Child Friendly Space</t>
+  </si>
+  <si>
+    <t>CFS Apple</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل</t>
+  </si>
+  <si>
+    <t>Vacant</t>
+  </si>
+  <si>
+    <t>MDM</t>
+  </si>
+  <si>
+    <t>مساحة شاغرة</t>
+  </si>
+  <si>
+    <t>KSA</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>UNHCR</t>
+  </si>
+  <si>
+    <t>UNHCR Registration</t>
+  </si>
+  <si>
+    <t>مكاتب الاستقبال المفوضية</t>
+  </si>
+  <si>
+    <t>CFS Dinosaur</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل ديناصور</t>
+  </si>
+  <si>
+    <t>CFS C</t>
+  </si>
+  <si>
+    <t>IMC / JHAS</t>
+  </si>
+  <si>
+    <t>EMPHNET</t>
+  </si>
+  <si>
+    <t>vaccination</t>
+  </si>
+  <si>
+    <t>Noor Hussein/UN Women Oasis 1</t>
+  </si>
+  <si>
+    <t>Kindergarten</t>
+  </si>
+  <si>
+    <t>Rainbow Kindergarten</t>
+  </si>
+  <si>
+    <t>روضة قوس قزح</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>School 4 (Annex)</t>
+  </si>
+  <si>
+    <t>Youth Center</t>
+  </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>IMC AFS 1 Venus</t>
+  </si>
+  <si>
+    <t>NRC</t>
+  </si>
+  <si>
+    <t>School 1 (Bahrain)</t>
+  </si>
+  <si>
+    <t>ACTED</t>
+  </si>
+  <si>
+    <t>اكتد</t>
+  </si>
+  <si>
+    <t>New Arrivals Registration</t>
+  </si>
+  <si>
+    <t>مكاتب الاستقبال</t>
+  </si>
+  <si>
+    <t>Parking Lot</t>
+  </si>
+  <si>
+    <t>موقف  سيارات</t>
+  </si>
+  <si>
+    <t>Base Camp</t>
+  </si>
+  <si>
+    <t>مكاتب المنظمات</t>
+  </si>
+  <si>
+    <t>MoH: 9:00am-1:00pm (Sun-Thu), EMPHNET: 9:00am-3:30pm (Sun-Thu)</t>
+  </si>
+  <si>
+    <t>MoH: coordination of health services, reproductive care, vaccination. EMPHNET: coordination of health services, outreach.</t>
+  </si>
+  <si>
+    <t>ACTED Cedar</t>
+  </si>
+  <si>
+    <t>خيمة الارز اكتد</t>
+  </si>
+  <si>
+    <t>JEN</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>School 8</t>
+  </si>
+  <si>
+    <t>Recreation</t>
+  </si>
+  <si>
+    <t>Mercy Corps</t>
+  </si>
+  <si>
+    <t>Mercy Corps Dream Land</t>
+  </si>
+  <si>
+    <t>منطقة ترفيهية</t>
+  </si>
+  <si>
+    <t>School 9</t>
+  </si>
+  <si>
+    <t>ACTED Apple</t>
+  </si>
+  <si>
+    <t>التفاحة اكتد</t>
+  </si>
+  <si>
+    <t>Playground</t>
+  </si>
+  <si>
+    <t>Mercy Corps Playground M5</t>
+  </si>
+  <si>
+    <t>UNICEF School</t>
+  </si>
+  <si>
+    <t>مدرسة اليونيسيف</t>
+  </si>
+  <si>
+    <t>Multiactivity Centre 1 Male</t>
+  </si>
+  <si>
+    <t>Little Hands Kindergarten</t>
+  </si>
+  <si>
+    <t>روضة الايادي الصغيرة</t>
+  </si>
+  <si>
+    <t>CFS Lamp</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل اللمبة</t>
+  </si>
+  <si>
+    <t>IMC AFS</t>
+  </si>
+  <si>
+    <t>CFS Fish</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل سمكة</t>
+  </si>
+  <si>
+    <t>Mercy Corps Playground M2</t>
+  </si>
+  <si>
+    <t>Noor Hussein Rehabilitiation Centre</t>
+  </si>
+  <si>
+    <t>نور الحسين</t>
+  </si>
+  <si>
+    <t>outreach, physiotherapy, psychotherapy, special education</t>
+  </si>
+  <si>
+    <t>CFS Notes</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل نوتة</t>
+  </si>
+  <si>
+    <t>SCJ</t>
+  </si>
+  <si>
+    <t>حماية الطفل الاردنيه</t>
+  </si>
+  <si>
+    <t>9:00am-3:00pm (Sat-Thu)</t>
+  </si>
+  <si>
+    <t>malnutrition screening, reproductive care, young children support</t>
+  </si>
+  <si>
+    <t>MSF Holland</t>
+  </si>
+  <si>
+    <t>MSF Hospital</t>
+  </si>
+  <si>
+    <t>أطباء بلا حدود</t>
+  </si>
+  <si>
+    <t>24/7, closed Jan 2017</t>
+  </si>
+  <si>
+    <t>orthopaedics, physiotherapy, psychotherapy</t>
+  </si>
+  <si>
+    <t>Multiactivity Centre 2 Female</t>
+  </si>
+  <si>
+    <t>IOM</t>
+  </si>
+  <si>
+    <t>IOM - TB Program</t>
+  </si>
+  <si>
+    <t>8:00am-5:00pm (Sun-Thu)</t>
+  </si>
+  <si>
+    <t>TB screening awareness / screening / diagnosis / treatment</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>SRAD</t>
+  </si>
+  <si>
+    <t>ادارة المخيم</t>
+  </si>
+  <si>
+    <t>Community Office</t>
+  </si>
+  <si>
+    <t>IRC</t>
+  </si>
+  <si>
+    <t>Women Center</t>
+  </si>
+  <si>
+    <t>مركز المراة</t>
+  </si>
+  <si>
+    <t>Mercy Corps Playground M3</t>
+  </si>
+  <si>
+    <t>ACTED Lemon</t>
+  </si>
+  <si>
+    <t>الليمونة اكتد</t>
+  </si>
+  <si>
+    <t>Oxfam</t>
+  </si>
+  <si>
+    <t>Oxfam Warehouse</t>
+  </si>
+  <si>
+    <t>KSA Hospital</t>
+  </si>
+  <si>
+    <t>المستشفى السعودي</t>
+  </si>
+  <si>
+    <t>9:00am-4:00pm (Sun-Thu), 10:00am-2:00pm (Sat)</t>
+  </si>
+  <si>
+    <t>cardiologist, dentist, dermatologist, ENT, GP, gynaecologist, internal medicine, laboratory, ORT, orthopedic, paediatrician, psychological support, urologist, vaccination, x-ray</t>
+  </si>
+  <si>
+    <t>مستودع</t>
+  </si>
+  <si>
+    <t>School 2 (Saudi Arabia)</t>
+  </si>
+  <si>
+    <t>المدرسة السعودية</t>
+  </si>
+  <si>
+    <t>IRC/JHAS</t>
+  </si>
+  <si>
+    <t>JHAS Maternity Clinic</t>
+  </si>
+  <si>
+    <t>مركز صحي الزعتري</t>
+  </si>
+  <si>
+    <t>24/7</t>
+  </si>
+  <si>
+    <t>ante and post-natal care, family planning, gender-based violence support, reproductive health, vaccination</t>
+  </si>
+  <si>
+    <t>ACTED Olive</t>
+  </si>
+  <si>
+    <t>خيمة الزيتونة اكتد</t>
+  </si>
+  <si>
+    <t>Community Police</t>
+  </si>
+  <si>
+    <t>الشرطة المجتمعتية</t>
+  </si>
+  <si>
+    <t>IMC AFS 5 Saturn</t>
+  </si>
+  <si>
+    <t>CFS Motorcycle</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل الدراجه</t>
+  </si>
+  <si>
+    <t>UNESCO Horse</t>
+  </si>
+  <si>
+    <t>منطقة لعب</t>
+  </si>
+  <si>
+    <t>CFS Ice Cream</t>
+  </si>
+  <si>
+    <t>Common Distribution Centre for Humanitarian Assistance (CDCHA)</t>
+  </si>
+  <si>
+    <t>IRD</t>
+  </si>
+  <si>
+    <t>School 3 (Qatar)</t>
+  </si>
+  <si>
+    <t>CFS Jasmine</t>
+  </si>
+  <si>
+    <t>مساحة صديقة للطفل الياسمين</t>
+  </si>
+  <si>
+    <t>IMC AFS 4 Mars</t>
+  </si>
+  <si>
+    <t>Mercy Corps Playground M6</t>
+  </si>
+  <si>
+    <t>IRD Play Area</t>
+  </si>
+  <si>
+    <t>WFP</t>
+  </si>
+  <si>
+    <t>WFP Bread Distribution</t>
+  </si>
+  <si>
+    <t>ACTED Site Office</t>
+  </si>
+  <si>
+    <t>مكاتب اكتد</t>
+  </si>
+  <si>
+    <t>Water Facilities</t>
+  </si>
+  <si>
+    <t>Bab Al Amood</t>
+  </si>
+  <si>
+    <t>Borehole 1</t>
+  </si>
+  <si>
+    <t>IMC AFS 3 Jupiter</t>
+  </si>
+  <si>
+    <t>9:00am-3:00pm (Sun-Thu)</t>
+  </si>
+  <si>
+    <t>ACTED Orange</t>
+  </si>
+  <si>
+    <t>اكتد مكتب اجتماعي</t>
+  </si>
+  <si>
+    <t>Qatari Red Crescent</t>
+  </si>
+  <si>
+    <t>Qatari Red Crescent Psycho-Social Support</t>
+  </si>
+  <si>
+    <t>عيادات شاملة</t>
+  </si>
+  <si>
+    <t>CFS Orange</t>
+  </si>
+  <si>
+    <t>حماية الطفل اورانج</t>
+  </si>
+  <si>
+    <t>IRC Transit Center</t>
+  </si>
+  <si>
+    <t>UNHCR/Noor Hussein Foundation</t>
+  </si>
+  <si>
+    <t>Noor Hussein Shared Centre</t>
+  </si>
+  <si>
+    <t>family planning, gender-based violence support, reproductive care</t>
+  </si>
+  <si>
+    <t>Save the Children International</t>
+  </si>
+  <si>
+    <t>Questscope-UNFPA Youth Center</t>
+  </si>
+  <si>
+    <t>مركز شبابي مؤسسة كويست سكوب وصندوق الأمم المتحدة للسكان</t>
+  </si>
+  <si>
+    <t>Multiactivity Centre 4 Female</t>
+  </si>
+  <si>
+    <t>Borehole 2</t>
+  </si>
+  <si>
+    <t>NRC Education Centre</t>
+  </si>
+  <si>
+    <t>المدرسة النرويجية</t>
+  </si>
+  <si>
+    <t>WFP Vouchers Exchange Center</t>
+  </si>
+  <si>
+    <t>IMC Mental Health</t>
+  </si>
+  <si>
+    <t>psychiatrist, psychologist</t>
+  </si>
+  <si>
+    <t>IRC PHC</t>
+  </si>
+  <si>
+    <t>اطباء حول العالم</t>
+  </si>
+  <si>
+    <t>8:30am-4:00pm (Sat-Thu)</t>
+  </si>
+  <si>
+    <t>acute and chronic condition management, ante and post-natal care, family planning, GP, internal medicine, management of chronic disease, ORT, vaccination.</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>HANDICAP</t>
+  </si>
+  <si>
+    <t>عيادة الاحتياجات الخاصة</t>
+  </si>
+  <si>
+    <t>disability support, physiotherapist, psychotherapy</t>
+  </si>
+  <si>
+    <t>Youth Programing Zaatari Camp</t>
+  </si>
+  <si>
+    <t>ICRC</t>
+  </si>
+  <si>
+    <t>اللجنة الدولية للصليب الاح</t>
+  </si>
+  <si>
+    <t>first aid training centre</t>
+  </si>
+  <si>
+    <t>JHAS RH: ante and post-natal care, family planning, reproductive care, vaccination. IFH/NHF: family planning, gender-based violence support, reproductive care.</t>
+  </si>
+  <si>
+    <t>Mercy Corps Playground M7</t>
+  </si>
+  <si>
+    <t>Imdad Bakery</t>
+  </si>
+  <si>
+    <t>مخبز امداد</t>
+  </si>
+  <si>
+    <t>Bail Out Office</t>
+  </si>
+  <si>
+    <t>مركز الكفالات</t>
+  </si>
+  <si>
+    <t>IRC Reception</t>
+  </si>
+  <si>
+    <t>Open Hands</t>
+  </si>
+  <si>
+    <t>اليد المفتوحه</t>
+  </si>
+  <si>
+    <t>CFS R</t>
+  </si>
+  <si>
+    <t>LWF</t>
+  </si>
+  <si>
+    <t>Holy Land</t>
+  </si>
+  <si>
+    <t>مركز الاراضي المقدسة</t>
+  </si>
+  <si>
+    <t>School 7 (Kuwait)</t>
+  </si>
+  <si>
+    <t>Police Substation 2</t>
+  </si>
+  <si>
+    <t>Norway Football Field</t>
+  </si>
+  <si>
+    <t>الملعب النرويجي</t>
+  </si>
+  <si>
+    <t>NRC Distribution Point</t>
+  </si>
+  <si>
+    <t>النرويجية</t>
+  </si>
+  <si>
+    <t>روضة أطفال</t>
+  </si>
+  <si>
+    <t>FCA</t>
+  </si>
+  <si>
+    <t>Finn Church Aid CFS</t>
+  </si>
+  <si>
+    <t>فين معونة الكنيسة</t>
+  </si>
+  <si>
+    <t>Save Way</t>
+  </si>
+  <si>
+    <t>WHOLESALE Centre</t>
+  </si>
+  <si>
+    <t>صرف كوبونات</t>
+  </si>
+  <si>
+    <t>Water Storage</t>
+  </si>
+  <si>
+    <t>تخزين مياه</t>
+  </si>
+  <si>
+    <t>Civil Defence</t>
+  </si>
+  <si>
+    <t>الدفاع المدني</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>Religious Court</t>
+  </si>
+  <si>
+    <t>المحكمة الشرعية</t>
+  </si>
+  <si>
+    <t>Police Substation 1</t>
+  </si>
+  <si>
+    <t>Qatari Clinic</t>
+  </si>
+  <si>
+    <t>العيادة القطرية</t>
+  </si>
+  <si>
+    <t>9:00am-4:00pm (Sat-Wed)</t>
+  </si>
+  <si>
+    <t>acute condition management, ante and post-natal care, dentist, emergency, family planning, GP, gynaecologist, malnutrition screening, ORT, paediatrician, SCJ booth, vaccination</t>
+  </si>
+  <si>
+    <t>FPSC</t>
+  </si>
+  <si>
+    <t>9:30am-3:30pm (Sun-Thu)</t>
+  </si>
+  <si>
+    <t>mobility device support and maintenance, physiotherapy</t>
+  </si>
+  <si>
+    <t>Returnees Bus Station</t>
+  </si>
+  <si>
+    <t>موقف باصات العودة</t>
+  </si>
+  <si>
+    <t>Acted Water Truck Parking Station</t>
+  </si>
+  <si>
+    <t>محطة وقوف شاحنات المياه</t>
+  </si>
+  <si>
+    <t>Tazweed Centre</t>
+  </si>
+  <si>
+    <t>مركز تزويد</t>
+  </si>
+  <si>
+    <t>JHAS</t>
+  </si>
+  <si>
+    <t>JHAS PHC Centre</t>
+  </si>
+  <si>
+    <t>عيادة العون</t>
+  </si>
+  <si>
+    <t>9:00am-4:00pm (Sat-Thu)</t>
+  </si>
+  <si>
+    <t>acute and chronic condition management, emergency, GP, gynecologist, health education, lab, malnutrition screening, MMU, referrals to external hospitals, vaccination</t>
+  </si>
+  <si>
+    <t>Korea Taekwondo Academy (KFHI)</t>
+  </si>
+  <si>
+    <t>مركز تدريب التكوندو</t>
+  </si>
+  <si>
+    <t>UN Women</t>
+  </si>
+  <si>
+    <t>Oxfam C.C.</t>
+  </si>
+  <si>
+    <t>NRC Youth Centre</t>
+  </si>
+  <si>
+    <t>مركز تمكين الشباب</t>
+  </si>
+  <si>
+    <t>School 6 (Kuwait)</t>
+  </si>
+  <si>
+    <t>AMR Mother and Child Centre</t>
+  </si>
+  <si>
+    <t>8:00am-3:00pm (Sat-Thu)</t>
+  </si>
+  <si>
+    <t>acute condition management, ante and post-natal care, dentist, emergency, family planning, malnutrition screening</t>
+  </si>
+  <si>
+    <t>Mosque</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kuwaiti Mosque</t>
+  </si>
+  <si>
+    <t>المسجد الكويتي</t>
+  </si>
+  <si>
+    <t>Gendarmerie</t>
+  </si>
+  <si>
+    <t>الدرك</t>
+  </si>
+  <si>
+    <t>Mercy Corps Playground SC-B</t>
+  </si>
+  <si>
+    <t>UNHCR Warehouse</t>
+  </si>
+  <si>
+    <t>Multiactivity Centre 3 Male</t>
+  </si>
+  <si>
+    <t>Borehole 3</t>
+  </si>
+  <si>
+    <t>ACTED Technical Site</t>
+  </si>
+  <si>
+    <t>مركز الصيانة اكتد</t>
+  </si>
+  <si>
+    <t>Wastewater Treatment Plant</t>
+  </si>
+  <si>
+    <t>محطة معالجة مياه الصرف الصح</t>
+  </si>
+  <si>
+    <t>Al Thajaj Water/Ice Factory</t>
+  </si>
+  <si>
+    <t>مياه الثجاج</t>
+  </si>
+  <si>
+    <t>School 5</t>
+  </si>
+  <si>
+    <t>Finn Church Aid</t>
+  </si>
+  <si>
+    <t>SCI Drop In Center 3</t>
+  </si>
+  <si>
+    <t>Mercy Corps Youth for Change</t>
+  </si>
+  <si>
+    <t>مركز الشباب ميرسي كور</t>
+  </si>
+  <si>
+    <t>SCI Drop In Center 1</t>
+  </si>
+  <si>
+    <t>Relief International</t>
+  </si>
+  <si>
+    <t>الإغاثة الدولية</t>
+  </si>
+  <si>
+    <t>Abd Allah Bin Moubarak  For Alshare'ah Science</t>
+  </si>
+  <si>
+    <t>عبد الله بن مبارك لعلوم الش</t>
+  </si>
+  <si>
+    <t>AMR Comprehensive Medical Centre</t>
+  </si>
+  <si>
+    <t>cardiology, dentist, dermatology, emergency, gastroenterologist, general surgery, gynaecologist, internal medicine, laboratory, neurologist, ophthalmologist, ORT, paediatrician, physiotherapy, radiology, vaccination</t>
+  </si>
+  <si>
+    <t>ملعب</t>
+  </si>
+  <si>
+    <t>Water Reservoirs</t>
+  </si>
+  <si>
+    <t>خزانات المياه</t>
+  </si>
+  <si>
+    <t>Oxfam Contractor Site</t>
+  </si>
+  <si>
+    <t>School (Kuwaiti)</t>
+  </si>
+  <si>
+    <t>UNHCR Service Area</t>
+  </si>
+  <si>
+    <t>مكتب خدمات المفوضية</t>
+  </si>
+  <si>
+    <t>FPD</t>
+  </si>
+  <si>
+    <t>ادارة حماية الاسرة</t>
+  </si>
+  <si>
+    <t>IRD Outreach</t>
+  </si>
+  <si>
+    <t>خدمات المخيم</t>
+  </si>
+  <si>
+    <t>malnutrition detection, outreach, vaccination</t>
+  </si>
+  <si>
+    <t>المدرسه الكويتيه</t>
+  </si>
+  <si>
+    <t>Kuwaiti Mosque 2</t>
+  </si>
+  <si>
+    <t>AMR Health Clinic 2</t>
+  </si>
+  <si>
+    <t>العياده الكويتيع</t>
+  </si>
+  <si>
+    <t>JPD</t>
+  </si>
+  <si>
+    <t>مفرزة احداث الزعتري</t>
+  </si>
+  <si>
+    <t>UN Women Oasis3</t>
+  </si>
+  <si>
+    <t>WWN Contractor Site</t>
+  </si>
+  <si>
+    <t>موقع مقاولين الصرف الصحي</t>
+  </si>
+  <si>
+    <t>IRD - Service Unit 3</t>
+  </si>
+  <si>
+    <t>IRD - Service Unit 5</t>
+  </si>
+  <si>
+    <t>IRD - Service Unit 4</t>
+  </si>
+  <si>
+    <t>UNICEF Centre</t>
+  </si>
+  <si>
+    <t>مركز اليونسيف</t>
+  </si>
+  <si>
+    <t>IRD - Activity Unit 6</t>
+  </si>
+  <si>
+    <t>IRD - Activity Unit 7</t>
+  </si>
+  <si>
+    <t>IRD - Service Unit 8</t>
+  </si>
+  <si>
+    <t>IRD - Activity Unit 9</t>
+  </si>
+  <si>
+    <t>IRD - Activity Unit 10a</t>
+  </si>
+  <si>
+    <t>IRD - Activity Unit 10b</t>
+  </si>
+  <si>
+    <t>IRD - Service Unit 11</t>
+  </si>
+  <si>
+    <t>IRD - Service Unit 12</t>
+  </si>
+  <si>
+    <t>UEFA</t>
+  </si>
+  <si>
+    <t>Sport Hall</t>
+  </si>
+  <si>
+    <t>صاله رياضية</t>
+  </si>
+  <si>
+    <t>Recycling Facilities</t>
+  </si>
+  <si>
+    <t>Oxfam Recycling Center</t>
+  </si>
+  <si>
+    <t>Oxfam Recycling Site</t>
+  </si>
+  <si>
+    <t>Football Field</t>
+  </si>
+  <si>
+    <t>AMR Health Clinic</t>
+  </si>
+  <si>
+    <t>JEN Warehouse</t>
+  </si>
+  <si>
     <t>المستشفى الاردني - الايطالي</t>
   </si>
   <si>
-    <t>8:30am-3:00pm (Sun-Thu)</t>
-  </si>
-  <si>
-    <t>echo, gynaecologist, internal medicine, paediatrics, radiologist, surgeon</t>
-  </si>
-  <si>
-    <t>Community Center</t>
-  </si>
-  <si>
-    <t>Camp Facility with Health Services</t>
-  </si>
-  <si>
-    <t>UNFPA/Noor Hussein Foundation</t>
-  </si>
-  <si>
-    <t>JHAS RH &amp; Noor Hussein</t>
-  </si>
-  <si>
-    <t>مركز المراه نور الحسين</t>
-  </si>
-  <si>
-    <t>9:00am-4:00pm (Sun-Thu)</t>
-  </si>
-  <si>
-    <t>JHAS RH: ante and post-natal care. IFH/NHF: family planning, gender-based violence support, reproductive care.</t>
-  </si>
-  <si>
-    <t>IRD Community Center</t>
-  </si>
-  <si>
     <t>IRD مركز اجتماعي</t>
   </si>
   <si>
-    <t>Distribution Point</t>
-  </si>
-  <si>
-    <t>SCI</t>
-  </si>
-  <si>
-    <t>WFP Distribution Centre</t>
-  </si>
-  <si>
     <t>مركز توزيع WFP</t>
   </si>
   <si>
-    <t>Child Friendly Space</t>
-  </si>
-  <si>
-    <t>CFS Apple</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل</t>
-  </si>
-  <si>
-    <t>Vacant</t>
-  </si>
-  <si>
-    <t>MDM</t>
-  </si>
-  <si>
-    <t>مساحة شاغرة</t>
-  </si>
-  <si>
-    <t>KSA</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>UNHCR</t>
-  </si>
-  <si>
-    <t>UNHCR Registration</t>
-  </si>
-  <si>
-    <t>مكاتب الاستقبال المفوضية</t>
-  </si>
-  <si>
-    <t>CFS Dinosaur</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل ديناصور</t>
-  </si>
-  <si>
-    <t>CFS C</t>
-  </si>
-  <si>
-    <t>IMC / JHAS</t>
-  </si>
-  <si>
-    <t>EMPHNET</t>
-  </si>
-  <si>
-    <t>vaccination</t>
-  </si>
-  <si>
-    <t>Noor Hussein/UN Women Oasis 1</t>
-  </si>
-  <si>
-    <t>Kindergarten</t>
-  </si>
-  <si>
-    <t>Rainbow Kindergarten</t>
-  </si>
-  <si>
-    <t>روضة قوس قزح</t>
-  </si>
-  <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>School 4 (Annex)</t>
-  </si>
-  <si>
     <t>المدرسة 4</t>
   </si>
   <si>
-    <t>Youth Center</t>
-  </si>
-  <si>
-    <t>IMC</t>
-  </si>
-  <si>
-    <t>IMC AFS 1 Venus</t>
-  </si>
-  <si>
     <t>IMC عطارد</t>
   </si>
   <si>
-    <t>NRC</t>
-  </si>
-  <si>
-    <t>School 1 (Bahrain)</t>
-  </si>
-  <si>
     <t>المدرسة 1 البحرينية</t>
   </si>
   <si>
-    <t>ACTED</t>
-  </si>
-  <si>
-    <t>اكتد</t>
-  </si>
-  <si>
-    <t>New Arrivals Registration</t>
-  </si>
-  <si>
-    <t>مكاتب الاستقبال</t>
-  </si>
-  <si>
-    <t>Parking Lot</t>
-  </si>
-  <si>
-    <t>موقف  سيارات</t>
-  </si>
-  <si>
-    <t>Base Camp</t>
-  </si>
-  <si>
-    <t>مكاتب المنظمات</t>
-  </si>
-  <si>
-    <t>MoH: 9:00am-1:00pm (Sun-Thu), EMPHNET: 9:00am-3:30pm (Sun-Thu)</t>
-  </si>
-  <si>
-    <t>MoH: coordination of health services, reproductive care, vaccination. EMPHNET: coordination of health services, outreach.</t>
-  </si>
-  <si>
-    <t>ACTED Cedar</t>
-  </si>
-  <si>
-    <t>خيمة الارز اكتد</t>
-  </si>
-  <si>
-    <t>JEN</t>
-  </si>
-  <si>
     <t>JENمركز اجتماعي</t>
   </si>
   <si>
-    <t>UNICEF</t>
-  </si>
-  <si>
-    <t>School 8</t>
-  </si>
-  <si>
     <t>المدرسه 8</t>
   </si>
   <si>
-    <t>Recreation</t>
-  </si>
-  <si>
-    <t>Mercy Corps</t>
-  </si>
-  <si>
-    <t>Mercy Corps Dream Land</t>
-  </si>
-  <si>
-    <t>منطقة ترفيهية</t>
-  </si>
-  <si>
-    <t>School 9</t>
-  </si>
-  <si>
     <t>المدرسه 9</t>
   </si>
   <si>
-    <t>ACTED Apple</t>
-  </si>
-  <si>
-    <t>التفاحة اكتد</t>
-  </si>
-  <si>
-    <t>Playground</t>
-  </si>
-  <si>
-    <t>Mercy Corps Playground M5</t>
-  </si>
-  <si>
     <t>منطقة لعب ميرسي كورM5</t>
   </si>
   <si>
-    <t>UNICEF School</t>
-  </si>
-  <si>
-    <t>مدرسة اليونيسيف</t>
-  </si>
-  <si>
-    <t>Multiactivity Centre 1 Male</t>
-  </si>
-  <si>
     <t>مركز النشاطات للشباب 1</t>
   </si>
   <si>
-    <t>Little Hands Kindergarten</t>
-  </si>
-  <si>
-    <t>روضة الايادي الصغيرة</t>
-  </si>
-  <si>
-    <t>CFS Lamp</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل اللمبة</t>
-  </si>
-  <si>
-    <t>IMC AFS</t>
-  </si>
-  <si>
-    <t>CFS Fish</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل سمكة</t>
-  </si>
-  <si>
-    <t>Mercy Corps Playground M2</t>
-  </si>
-  <si>
     <t>منطقة لعب ميرسي كورM2</t>
   </si>
   <si>
-    <t>Noor Hussein Rehabilitiation Centre</t>
-  </si>
-  <si>
-    <t>نور الحسين</t>
-  </si>
-  <si>
-    <t>outreach, physiotherapy, psychotherapy, special education</t>
-  </si>
-  <si>
-    <t>CFS Notes</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل نوتة</t>
-  </si>
-  <si>
-    <t>SCJ</t>
-  </si>
-  <si>
-    <t>حماية الطفل الاردنيه</t>
-  </si>
-  <si>
-    <t>9:00am-3:00pm (Sat-Thu)</t>
-  </si>
-  <si>
-    <t>malnutrition screening, reproductive care, young children support</t>
-  </si>
-  <si>
-    <t>MSF Holland</t>
-  </si>
-  <si>
-    <t>MSF Hospital</t>
-  </si>
-  <si>
-    <t>أطباء بلا حدود</t>
-  </si>
-  <si>
-    <t>24/7, closed Jan 2017</t>
-  </si>
-  <si>
-    <t>orthopaedics, physiotherapy, psychotherapy</t>
-  </si>
-  <si>
-    <t>Multiactivity Centre 2 Female</t>
-  </si>
-  <si>
     <t>مركز النشاطات للبنات 2</t>
   </si>
   <si>
-    <t>IOM</t>
-  </si>
-  <si>
-    <t>IOM - TB Program</t>
-  </si>
-  <si>
     <t>مكاتب الاستقبال IOM</t>
   </si>
   <si>
-    <t>8:00am-5:00pm (Sun-Thu)</t>
-  </si>
-  <si>
-    <t>TB screening awareness / screening / diagnosis / treatment</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>SRAD</t>
-  </si>
-  <si>
-    <t>ادارة المخيم</t>
-  </si>
-  <si>
-    <t>Community Office</t>
-  </si>
-  <si>
-    <t>IRC</t>
-  </si>
-  <si>
-    <t>Women Center</t>
-  </si>
-  <si>
-    <t>مركز المراة</t>
-  </si>
-  <si>
-    <t>Mercy Corps Playground M3</t>
-  </si>
-  <si>
     <t>منطقة لعب ميرسي كورM3</t>
   </si>
   <si>
-    <t>ACTED Lemon</t>
-  </si>
-  <si>
-    <t>الليمونة اكتد</t>
-  </si>
-  <si>
-    <t>Oxfam</t>
-  </si>
-  <si>
-    <t>Oxfam Warehouse</t>
-  </si>
-  <si>
     <t>مستودع  OXFAM</t>
   </si>
   <si>
-    <t>KSA Hospital</t>
-  </si>
-  <si>
-    <t>المستشفى السعودي</t>
-  </si>
-  <si>
-    <t>9:00am-4:00pm (Sun-Thu), 10:00am-2:00pm (Sat)</t>
-  </si>
-  <si>
-    <t>cardiologist, dentist, dermatologist, ENT, GP, gynaecologist, internal medicine, laboratory, ORT, orthopedic, paediatrician, psychological support, urologist, vaccination, x-ray</t>
-  </si>
-  <si>
-    <t>مستودع</t>
-  </si>
-  <si>
-    <t>School 2 (Saudi Arabia)</t>
-  </si>
-  <si>
-    <t>المدرسة السعودية</t>
-  </si>
-  <si>
-    <t>IRC/JHAS</t>
-  </si>
-  <si>
-    <t>JHAS Maternity Clinic</t>
-  </si>
-  <si>
-    <t>مركز صحي الزعتري</t>
-  </si>
-  <si>
-    <t>24/7</t>
-  </si>
-  <si>
-    <t>ante and post-natal care, family planning, gender-based violence support, reproductive health, vaccination</t>
-  </si>
-  <si>
-    <t>ACTED Olive</t>
-  </si>
-  <si>
-    <t>خيمة الزيتونة اكتد</t>
-  </si>
-  <si>
-    <t>Community Police</t>
-  </si>
-  <si>
-    <t>الشرطة المجتمعتية</t>
-  </si>
-  <si>
-    <t>IMC AFS 5 Saturn</t>
-  </si>
-  <si>
     <t>IMC زحل</t>
   </si>
   <si>
-    <t>CFS Motorcycle</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل الدراجه</t>
-  </si>
-  <si>
-    <t>UNESCO Horse</t>
-  </si>
-  <si>
-    <t>منطقة لعب</t>
-  </si>
-  <si>
-    <t>CFS Ice Cream</t>
-  </si>
-  <si>
-    <t>Common Distribution Centre for Humanitarian Assistance (CDCHA)</t>
-  </si>
-  <si>
     <t>مركز التوزيع المشترك للمساعدات الإنسانية (CDCHA)</t>
   </si>
   <si>
-    <t>IRD</t>
-  </si>
-  <si>
     <t>مركز اجتماعي IRD</t>
   </si>
   <si>
-    <t>School 3 (Qatar)</t>
-  </si>
-  <si>
     <t>المدرسة 3 القطرية</t>
   </si>
   <si>
-    <t>CFS Jasmine</t>
-  </si>
-  <si>
-    <t>مساحة صديقة للطفل الياسمين</t>
-  </si>
-  <si>
-    <t>IMC AFS 4 Mars</t>
-  </si>
-  <si>
     <t>IMC المريخ</t>
   </si>
   <si>
-    <t>Mercy Corps Playground M6</t>
-  </si>
-  <si>
     <t>منطقة لعب ميرسي كورM6</t>
   </si>
   <si>
-    <t>IRD Play Area</t>
-  </si>
-  <si>
     <t>IRD ملعب</t>
   </si>
   <si>
-    <t>WFP</t>
-  </si>
-  <si>
-    <t>WFP Bread Distribution</t>
-  </si>
-  <si>
     <t>مركز توزيع الخبز WFP</t>
   </si>
   <si>
-    <t>ACTED Site Office</t>
-  </si>
-  <si>
-    <t>مكاتب اكتد</t>
-  </si>
-  <si>
-    <t>Water Facilities</t>
-  </si>
-  <si>
-    <t>Bab Al Amood</t>
-  </si>
-  <si>
-    <t>Borehole 1</t>
-  </si>
-  <si>
     <t>البئر 1</t>
   </si>
   <si>
-    <t>IMC AFS 3 Jupiter</t>
-  </si>
-  <si>
     <t>IMC المشتري</t>
   </si>
   <si>
-    <t>9:00am-3:00pm (Sun-Thu)</t>
-  </si>
-  <si>
-    <t>ACTED Orange</t>
-  </si>
-  <si>
-    <t>اكتد مكتب اجتماعي</t>
-  </si>
-  <si>
-    <t>Qatari Red Crescent</t>
-  </si>
-  <si>
-    <t>Qatari Red Crescent Psycho-Social Support</t>
-  </si>
-  <si>
-    <t>عيادات شاملة</t>
-  </si>
-  <si>
-    <t>CFS Orange</t>
-  </si>
-  <si>
-    <t>حماية الطفل اورانج</t>
-  </si>
-  <si>
-    <t>IRC Transit Center</t>
-  </si>
-  <si>
     <t>مكتب اجتماعي IRC</t>
   </si>
   <si>
-    <t>UNHCR/Noor Hussein Foundation</t>
-  </si>
-  <si>
-    <t>Noor Hussein Shared Centre</t>
-  </si>
-  <si>
-    <t>family planning, gender-based violence support, reproductive care</t>
-  </si>
-  <si>
-    <t>Save the Children International</t>
-  </si>
-  <si>
-    <t>Questscope-UNFPA Youth Center</t>
-  </si>
-  <si>
-    <t>مركز شبابي مؤسسة كويست سكوب وصندوق الأمم المتحدة للسكان</t>
-  </si>
-  <si>
-    <t>Multiactivity Centre 4 Female</t>
-  </si>
-  <si>
     <t>مركز النشاطات للبنات 4</t>
   </si>
   <si>
-    <t>Borehole 2</t>
-  </si>
-  <si>
     <t>البئر 2</t>
   </si>
   <si>
-    <t>NRC Education Centre</t>
-  </si>
-  <si>
-    <t>المدرسة النرويجية</t>
-  </si>
-  <si>
-    <t>WFP Vouchers Exchange Center</t>
-  </si>
-  <si>
     <t>صرف كوبونات WFP</t>
   </si>
   <si>
-    <t>IMC Mental Health</t>
-  </si>
-  <si>
     <t>عيادات شاملة IMC</t>
   </si>
   <si>
-    <t>psychiatrist, psychologist</t>
-  </si>
-  <si>
-    <t>IRC PHC</t>
-  </si>
-  <si>
-    <t>اطباء حول العالم</t>
-  </si>
-  <si>
-    <t>8:30am-4:00pm (Sat-Thu)</t>
-  </si>
-  <si>
-    <t>acute and chronic condition management, ante and post-natal care, family planning, GP, internal medicine, management of chronic disease, ORT, vaccination.</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>HANDICAP</t>
-  </si>
-  <si>
-    <t>عيادة الاحتياجات الخاصة</t>
-  </si>
-  <si>
-    <t>disability support, physiotherapist, psychotherapy</t>
-  </si>
-  <si>
-    <t>Youth Programing Zaatari Camp</t>
-  </si>
-  <si>
     <t>مركز الشباب NRC</t>
   </si>
   <si>
-    <t>ICRC</t>
-  </si>
-  <si>
-    <t>اللجنة الدولية للصليب الاح</t>
-  </si>
-  <si>
-    <t>first aid training centre</t>
-  </si>
-  <si>
-    <t>JHAS RH: ante and post-natal care, family planning, reproductive care, vaccination. IFH/NHF: family planning, gender-based violence support, reproductive care.</t>
-  </si>
-  <si>
-    <t>Mercy Corps Playground M7</t>
-  </si>
-  <si>
     <t>منطقة لعب ميرسي كورM7</t>
   </si>
   <si>
-    <t>Imdad Bakery</t>
-  </si>
-  <si>
-    <t>مخبز امداد</t>
-  </si>
-  <si>
-    <t>Bail Out Office</t>
-  </si>
-  <si>
-    <t>مركز الكفالات</t>
-  </si>
-  <si>
-    <t>IRC Reception</t>
-  </si>
-  <si>
     <t>مكاتب الاستقبال IRC</t>
   </si>
   <si>
-    <t>Open Hands</t>
-  </si>
-  <si>
-    <t>اليد المفتوحه</t>
-  </si>
-  <si>
-    <t>CFS R</t>
-  </si>
-  <si>
-    <t>LWF</t>
-  </si>
-  <si>
-    <t>Holy Land</t>
-  </si>
-  <si>
-    <t>مركز الاراضي المقدسة</t>
-  </si>
-  <si>
-    <t>School 7 (Kuwait)</t>
-  </si>
-  <si>
     <t>المدرسة الكويتية 2</t>
   </si>
   <si>
-    <t>Police Substation 2</t>
-  </si>
-  <si>
     <t>مركز الشرطة الفرعية 2</t>
   </si>
   <si>
-    <t>Norway Football Field</t>
-  </si>
-  <si>
-    <t>الملعب النرويجي</t>
-  </si>
-  <si>
-    <t>NRC Distribution Point</t>
-  </si>
-  <si>
-    <t>النرويجية</t>
-  </si>
-  <si>
-    <t>روضة أطفال</t>
-  </si>
-  <si>
-    <t>FCA</t>
-  </si>
-  <si>
-    <t>Finn Church Aid CFS</t>
-  </si>
-  <si>
-    <t>فين معونة الكنيسة</t>
-  </si>
-  <si>
-    <t>Save Way</t>
-  </si>
-  <si>
-    <t>WHOLESALE Centre</t>
-  </si>
-  <si>
-    <t>صرف كوبونات</t>
-  </si>
-  <si>
-    <t>Water Storage</t>
-  </si>
-  <si>
-    <t>تخزين مياه</t>
-  </si>
-  <si>
-    <t>Civil Defence</t>
-  </si>
-  <si>
-    <t>الدفاع المدني</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>Religious Court</t>
-  </si>
-  <si>
-    <t>المحكمة الشرعية</t>
-  </si>
-  <si>
-    <t>Police Substation 1</t>
-  </si>
-  <si>
     <t>مركز الشرطة الفرعية 1</t>
   </si>
   <si>
-    <t>Qatari Clinic</t>
-  </si>
-  <si>
-    <t>العيادة القطرية</t>
-  </si>
-  <si>
-    <t>9:00am-4:00pm (Sat-Wed)</t>
-  </si>
-  <si>
-    <t>acute condition management, ante and post-natal care, dentist, emergency, family planning, GP, gynaecologist, malnutrition screening, ORT, paediatrician, SCJ booth, vaccination</t>
-  </si>
-  <si>
-    <t>FPSC</t>
-  </si>
-  <si>
-    <t>9:30am-3:30pm (Sun-Thu)</t>
-  </si>
-  <si>
-    <t>mobility device support and maintenance, physiotherapy</t>
-  </si>
-  <si>
-    <t>Returnees Bus Station</t>
-  </si>
-  <si>
-    <t>موقف باصات العودة</t>
-  </si>
-  <si>
-    <t>Acted Water Truck Parking Station</t>
-  </si>
-  <si>
-    <t>محطة وقوف شاحنات المياه</t>
-  </si>
-  <si>
-    <t>Tazweed Centre</t>
-  </si>
-  <si>
-    <t>مركز تزويد</t>
-  </si>
-  <si>
-    <t>JHAS</t>
-  </si>
-  <si>
-    <t>JHAS PHC Centre</t>
-  </si>
-  <si>
-    <t>عيادة العون</t>
-  </si>
-  <si>
-    <t>9:00am-4:00pm (Sat-Thu)</t>
-  </si>
-  <si>
-    <t>acute and chronic condition management, emergency, GP, gynecologist, health education, lab, malnutrition screening, MMU, referrals to external hospitals, vaccination</t>
-  </si>
-  <si>
-    <t>Korea Taekwondo Academy (KFHI)</t>
-  </si>
-  <si>
-    <t>مركز تدريب التكوندو</t>
-  </si>
-  <si>
-    <t>UN Women</t>
-  </si>
-  <si>
     <t>المراة UN</t>
   </si>
   <si>
-    <t>Oxfam C.C.</t>
-  </si>
-  <si>
-    <t>NRC Youth Centre</t>
-  </si>
-  <si>
-    <t>مركز تمكين الشباب</t>
-  </si>
-  <si>
-    <t>School 6 (Kuwait)</t>
-  </si>
-  <si>
     <t>المدرسة 6 الكويتة</t>
   </si>
   <si>
-    <t>AMR Mother and Child Centre</t>
-  </si>
-  <si>
     <t>AMR  مركزالأم و الطفل</t>
   </si>
   <si>
-    <t>8:00am-3:00pm (Sat-Thu)</t>
-  </si>
-  <si>
-    <t>acute condition management, ante and post-natal care, dentist, emergency, family planning, malnutrition screening</t>
-  </si>
-  <si>
-    <t>Mosque</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kuwaiti Mosque</t>
-  </si>
-  <si>
-    <t>المسجد الكويتي</t>
-  </si>
-  <si>
-    <t>Gendarmerie</t>
-  </si>
-  <si>
-    <t>الدرك</t>
-  </si>
-  <si>
-    <t>Mercy Corps Playground SC-B</t>
-  </si>
-  <si>
-    <t>UNHCR Warehouse</t>
-  </si>
-  <si>
     <t>مستودع UNHCR</t>
   </si>
   <si>
-    <t>Multiactivity Centre 3 Male</t>
-  </si>
-  <si>
     <t>مركز النشاطات للشباب 3</t>
   </si>
   <si>
-    <t>Borehole 3</t>
-  </si>
-  <si>
     <t>البئر 3</t>
   </si>
   <si>
-    <t>ACTED Technical Site</t>
-  </si>
-  <si>
-    <t>مركز الصيانة اكتد</t>
-  </si>
-  <si>
-    <t>Wastewater Treatment Plant</t>
-  </si>
-  <si>
-    <t>محطة معالجة مياه الصرف الصح</t>
-  </si>
-  <si>
     <t>مركز اجتماعيIRD</t>
   </si>
   <si>
-    <t>Al Thajaj Water/Ice Factory</t>
-  </si>
-  <si>
-    <t>مياه الثجاج</t>
-  </si>
-  <si>
-    <t>School 5</t>
-  </si>
-  <si>
     <t>المدرسه 5</t>
   </si>
   <si>
-    <t>Finn Church Aid</t>
-  </si>
-  <si>
-    <t>SCI Drop In Center 3</t>
-  </si>
-  <si>
-    <t>Mercy Corps Youth for Change</t>
-  </si>
-  <si>
-    <t>مركز الشباب ميرسي كور</t>
-  </si>
-  <si>
-    <t>SCI Drop In Center 1</t>
-  </si>
-  <si>
-    <t>Relief International</t>
-  </si>
-  <si>
-    <t>الإغاثة الدولية</t>
-  </si>
-  <si>
-    <t>Abd Allah Bin Moubarak  For Alshare'ah Science</t>
-  </si>
-  <si>
-    <t>عبد الله بن مبارك لعلوم الش</t>
-  </si>
-  <si>
-    <t>AMR Comprehensive Medical Centre</t>
-  </si>
-  <si>
     <t>المركز الطبي الشامل AMR</t>
   </si>
   <si>
-    <t>cardiology, dentist, dermatology, emergency, gastroenterologist, general surgery, gynaecologist, internal medicine, laboratory, neurologist, ophthalmologist, ORT, paediatrician, physiotherapy, radiology, vaccination</t>
-  </si>
-  <si>
-    <t>ملعب</t>
-  </si>
-  <si>
-    <t>Water Reservoirs</t>
-  </si>
-  <si>
-    <t>خزانات المياه</t>
-  </si>
-  <si>
-    <t>Oxfam Contractor Site</t>
-  </si>
-  <si>
     <t>Oxfam مكاتب المقاولين</t>
   </si>
   <si>
-    <t>School (Kuwaiti)</t>
-  </si>
-  <si>
     <t>مدر سة الكويتيه 1</t>
   </si>
   <si>
-    <t>UNHCR Service Area</t>
-  </si>
-  <si>
-    <t>مكتب خدمات المفوضية</t>
-  </si>
-  <si>
-    <t>FPD</t>
-  </si>
-  <si>
-    <t>ادارة حماية الاسرة</t>
-  </si>
-  <si>
-    <t>IRD Outreach</t>
-  </si>
-  <si>
-    <t>خدمات المخيم</t>
-  </si>
-  <si>
-    <t>malnutrition detection, outreach, vaccination</t>
-  </si>
-  <si>
-    <t>المدرسه الكويتيه</t>
-  </si>
-  <si>
-    <t>Kuwaiti Mosque 2</t>
-  </si>
-  <si>
     <t>مدر سة الكويتيه 2</t>
   </si>
   <si>
-    <t>AMR Health Clinic 2</t>
-  </si>
-  <si>
-    <t>العياده الكويتيع</t>
-  </si>
-  <si>
-    <t>JPD</t>
-  </si>
-  <si>
-    <t>مفرزة احداث الزعتري</t>
-  </si>
-  <si>
-    <t>UN Women Oasis3</t>
-  </si>
-  <si>
-    <t>WWN Contractor Site</t>
-  </si>
-  <si>
-    <t>موقع مقاولين الصرف الصحي</t>
-  </si>
-  <si>
-    <t>IRD - Service Unit 3</t>
-  </si>
-  <si>
     <t>وحدة النشاط 3 -IRD</t>
   </si>
   <si>
-    <t>IRD - Service Unit 5</t>
-  </si>
-  <si>
     <t>وحدة النشاط 5 -IRD</t>
   </si>
   <si>
-    <t>IRD - Service Unit 4</t>
-  </si>
-  <si>
     <t>وحدة النشاط 4 -IRD</t>
   </si>
   <si>
-    <t>UNICEF Centre</t>
-  </si>
-  <si>
-    <t>مركز اليونسيف</t>
-  </si>
-  <si>
-    <t>IRD - Activity Unit 6</t>
-  </si>
-  <si>
     <t>وحدة النشاط 6 -IRD</t>
   </si>
   <si>
-    <t>IRD - Activity Unit 7</t>
-  </si>
-  <si>
     <t>وحدة النشاط 7 -IRD</t>
   </si>
   <si>
-    <t>IRD - Service Unit 8</t>
-  </si>
-  <si>
     <t>وحدة النشاط 8 -IRD</t>
   </si>
   <si>
-    <t>IRD - Activity Unit 9</t>
-  </si>
-  <si>
     <t>وحدة النشاط 9 -IRD</t>
   </si>
   <si>
-    <t>IRD - Activity Unit 10a</t>
-  </si>
-  <si>
     <t>وحدة النشاط 10 -IRD</t>
   </si>
   <si>
-    <t>IRD - Activity Unit 10b</t>
-  </si>
-  <si>
-    <t>IRD - Service Unit 11</t>
-  </si>
-  <si>
     <t>وحدة النشاط 11 -IRD</t>
   </si>
   <si>
-    <t>IRD - Service Unit 12</t>
-  </si>
-  <si>
     <t>وحدة النشاط 12 -IRD</t>
-  </si>
-  <si>
-    <t>UEFA</t>
-  </si>
-  <si>
-    <t>Sport Hall</t>
-  </si>
-  <si>
-    <t>صاله رياضية</t>
-  </si>
-  <si>
-    <t>Recycling Facilities</t>
-  </si>
-  <si>
-    <t>Oxfam Recycling Center</t>
-  </si>
-  <si>
-    <t>Oxfam Recycling Site</t>
-  </si>
-  <si>
-    <t>Football Field</t>
-  </si>
-  <si>
-    <t>AMR Health Clinic</t>
-  </si>
-  <si>
-    <t>JEN Warehouse</t>
   </si>
   <si>
     <t>مستودع JEN</t>
@@ -1829,19 +1829,19 @@
         <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>40</v>
@@ -1882,34 +1882,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>40</v>
@@ -1950,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
@@ -1959,10 +1959,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -1970,22 +1970,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>4</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -1993,22 +1993,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -2016,22 +2016,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -2039,22 +2039,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -2062,22 +2062,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" s="1">
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -2085,22 +2085,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
@@ -2108,22 +2108,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
@@ -2137,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>39</v>
@@ -2146,16 +2146,16 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>40</v>
@@ -2196,22 +2196,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1">
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
@@ -2219,22 +2219,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1">
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -2242,22 +2242,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F18" s="1">
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -2265,22 +2265,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F19" s="1">
         <v>3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -2288,22 +2288,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F20" s="1">
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
@@ -2311,22 +2311,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1">
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>89</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -2334,22 +2334,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" s="1">
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -2363,16 +2363,16 @@
         <v>24</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
@@ -2380,22 +2380,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
@@ -2412,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
@@ -2426,31 +2426,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1">
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>40</v>
@@ -2491,22 +2491,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F27" s="1">
         <v>2</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -2514,22 +2514,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1">
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -2537,22 +2537,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>106</v>
+        <v>363</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -2560,22 +2560,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F30" s="1">
         <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -2583,22 +2583,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F31" s="1">
         <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>112</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
@@ -2606,22 +2606,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1">
         <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
@@ -2629,22 +2629,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F33" s="1">
         <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
@@ -2652,13 +2652,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>39</v>
@@ -2667,10 +2667,10 @@
         <v>10</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
@@ -2678,22 +2678,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1">
         <v>10</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>121</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
@@ -2701,22 +2701,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1">
         <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
@@ -2724,7 +2724,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>24</v>
@@ -2733,10 +2733,10 @@
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
@@ -2744,22 +2744,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1">
         <v>12</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
@@ -2767,7 +2767,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>24</v>
@@ -2776,10 +2776,10 @@
         <v>11</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
@@ -2787,22 +2787,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1">
         <v>11</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
@@ -2810,22 +2810,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F41" s="1">
         <v>11</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
@@ -2833,31 +2833,31 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="F42" s="1">
         <v>6</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>40</v>
@@ -2898,22 +2898,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F43" s="1">
         <v>6</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
@@ -2921,34 +2921,34 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F44" s="1">
         <v>4</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>40</v>
@@ -2995,28 +2995,28 @@
         <v>33</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F45" s="1">
         <v>5</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>39</v>
@@ -3057,22 +3057,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F46" s="1">
         <v>4</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>146</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
@@ -3080,34 +3080,34 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>149</v>
+        <v>369</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>40</v>
@@ -3148,22 +3148,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1">
         <v>5</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.2">
@@ -3171,22 +3171,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1">
         <v>4</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -3194,22 +3194,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F50" s="1">
         <v>10</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>161</v>
+        <v>370</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.2">
@@ -3217,22 +3217,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F51" s="1">
         <v>11</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -3246,16 +3246,16 @@
         <v>24</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F52" s="1">
         <v>6</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>166</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
@@ -3269,28 +3269,28 @@
         <v>33</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1">
         <v>5</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>40</v>
@@ -3337,7 +3337,7 @@
         <v>24</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1">
         <v>5</v>
@@ -3346,7 +3346,7 @@
         <v>23</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -3354,22 +3354,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F55" s="1">
         <v>5</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.2">
@@ -3383,28 +3383,28 @@
         <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F56" s="1">
         <v>5</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>40</v>
@@ -3445,22 +3445,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F57" s="1">
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.2">
@@ -3468,7 +3468,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>24</v>
@@ -3477,10 +3477,10 @@
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
@@ -3488,22 +3488,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F59" s="1">
         <v>12</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>184</v>
+        <v>372</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
@@ -3511,7 +3511,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>24</v>
@@ -3520,10 +3520,10 @@
         <v>10</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
@@ -3531,22 +3531,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F61" s="1">
         <v>10</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
@@ -3554,7 +3554,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>24</v>
@@ -3563,10 +3563,10 @@
         <v>10</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
@@ -3574,22 +3574,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F63" s="1">
         <v>9</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
@@ -3597,22 +3597,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F64" s="1">
         <v>6</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
@@ -3620,22 +3620,22 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F65" s="1">
         <v>4</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
@@ -3643,22 +3643,22 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F66" s="1">
         <v>9</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -3666,22 +3666,22 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F67" s="1">
         <v>8</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>195</v>
+        <v>375</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
@@ -3689,22 +3689,22 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F68" s="1">
         <v>7</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
@@ -3712,22 +3712,22 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F69" s="1">
         <v>10</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
@@ -3735,22 +3735,22 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F70" s="1">
         <v>6</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>199</v>
+        <v>376</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
@@ -3758,22 +3758,22 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F71" s="1">
         <v>7</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>201</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
@@ -3781,22 +3781,22 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F72" s="1">
         <v>7</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
@@ -3804,22 +3804,22 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F73" s="1">
         <v>7</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
@@ -3833,16 +3833,16 @@
         <v>24</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F74" s="1">
         <v>10</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
@@ -3850,22 +3850,22 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F75" s="1">
         <v>10</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>212</v>
+        <v>380</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
@@ -3873,22 +3873,22 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F76" s="1">
         <v>10</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
@@ -3896,34 +3896,34 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F77" s="1">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>40</v>
@@ -3964,22 +3964,22 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F78" s="1">
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
@@ -3987,22 +3987,22 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F79" s="1">
         <v>9</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
@@ -4016,16 +4016,16 @@
         <v>24</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="F80" s="1">
         <v>5</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
@@ -4033,22 +4033,22 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F81" s="1">
         <v>5</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
@@ -4056,22 +4056,22 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F82" s="1">
         <v>5</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
@@ -4079,22 +4079,22 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F83" s="1">
         <v>5</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
@@ -4102,22 +4102,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F84" s="1">
         <v>4</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>224</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
@@ -4131,28 +4131,28 @@
         <v>33</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="F85" s="1">
         <v>4</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>40</v>
@@ -4193,22 +4193,22 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F86" s="1">
         <v>4</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
@@ -4216,22 +4216,22 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F87" s="1">
         <v>6</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
@@ -4239,22 +4239,22 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F88" s="1">
         <v>8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
@@ -4262,22 +4262,22 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F89" s="1">
         <v>8</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>232</v>
+        <v>383</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
@@ -4285,22 +4285,22 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F90" s="1">
         <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
@@ -4308,22 +4308,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="F91" s="1">
         <v>8</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>234</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.2">
@@ -4331,22 +4331,22 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F92" s="1">
         <v>10</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
@@ -4354,22 +4354,22 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F93" s="1">
         <v>10</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
@@ -4377,22 +4377,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F94" s="1">
         <v>11</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
@@ -4400,22 +4400,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F95" s="1">
         <v>11</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>206</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
@@ -4429,28 +4429,28 @@
         <v>33</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F96" s="1">
         <v>5</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>40</v>
@@ -4497,28 +4497,28 @@
         <v>33</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>40</v>
@@ -4565,28 +4565,28 @@
         <v>33</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F98" s="1">
         <v>5</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>40</v>
@@ -4627,22 +4627,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F99" s="1">
         <v>6</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>193</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.2">
@@ -4650,22 +4650,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F100" s="1">
         <v>10</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>251</v>
+        <v>387</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.2">
@@ -4676,31 +4676,31 @@
         <v>28</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>40</v>
@@ -4741,22 +4741,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F102" s="1">
         <v>8</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>57</v>
+        <v>358</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.2">
@@ -4764,34 +4764,34 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F103" s="1">
         <v>8</v>
       </c>
       <c r="G103" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H103" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J103" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>40</v>
@@ -4832,22 +4832,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F104" s="1">
         <v>8</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>257</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.2">
@@ -4855,7 +4855,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>24</v>
@@ -4867,10 +4867,10 @@
         <v>11</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.2">
@@ -4884,16 +4884,16 @@
         <v>24</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F106" s="1">
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
@@ -4901,22 +4901,22 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>263</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.2">
@@ -4930,16 +4930,16 @@
         <v>24</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F108" s="1">
         <v>1</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.2">
@@ -4947,22 +4947,22 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F109" s="1">
         <v>8</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
@@ -4970,34 +4970,34 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>40</v>
@@ -5038,22 +5038,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F111" s="1">
         <v>8</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
@@ -5061,22 +5061,22 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.2">
@@ -5093,10 +5093,10 @@
         <v>5</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.2">
@@ -5104,22 +5104,22 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F114" s="1">
         <v>12</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>271</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.2">
@@ -5127,22 +5127,22 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F115" s="1">
         <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>273</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>24</v>
@@ -5159,10 +5159,10 @@
         <v>10</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.2">
@@ -5170,7 +5170,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>24</v>
@@ -5179,10 +5179,10 @@
         <v>9</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.2">
@@ -5190,13 +5190,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>39</v>
@@ -5205,10 +5205,10 @@
         <v>3</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.2">
@@ -5216,22 +5216,22 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F119" s="1">
         <v>6</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
@@ -5239,22 +5239,22 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F120" s="1">
         <v>6</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.2">
@@ -5262,7 +5262,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>24</v>
@@ -5271,10 +5271,10 @@
         <v>6</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.2">
@@ -5282,22 +5282,22 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F122" s="1">
         <v>8</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.2">
@@ -5305,22 +5305,22 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="F123" s="1">
         <v>8</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.2">
@@ -5328,22 +5328,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F124" s="1">
         <v>6</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.2">
@@ -5351,7 +5351,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>24</v>
@@ -5360,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.2">
@@ -5380,22 +5380,22 @@
         <v>5</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K126" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>39</v>
@@ -5445,10 +5445,10 @@
         <v>5</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.2">
@@ -5456,13 +5456,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="E128" s="1" t="s">
         <v>39</v>
@@ -5471,10 +5471,10 @@
         <v>8</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>293</v>
+        <v>392</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
@@ -5482,22 +5482,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F129" s="1">
         <v>5</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>203</v>
+        <v>378</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.2">
@@ -5514,22 +5514,22 @@
         <v>8</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="K130" s="1" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>39</v>
@@ -5570,7 +5570,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>24</v>
@@ -5579,10 +5579,10 @@
         <v>12</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.2">
@@ -5593,28 +5593,28 @@
         <v>28</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F132" s="1">
         <v>10</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="K132" s="1" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>40</v>
@@ -5655,7 +5655,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>24</v>
@@ -5664,10 +5664,10 @@
         <v>10</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
@@ -5675,7 +5675,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>24</v>
@@ -5684,10 +5684,10 @@
         <v>7</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.2">
@@ -5704,10 +5704,10 @@
         <v>7</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.2">
@@ -5715,22 +5715,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F136" s="1">
         <v>7</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.2">
@@ -5744,28 +5744,28 @@
         <v>33</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="F137" s="1">
         <v>6</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="K137" s="1" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>39</v>
@@ -5806,7 +5806,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>24</v>
@@ -5815,10 +5815,10 @@
         <v>5</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.2">
@@ -5826,7 +5826,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>24</v>
@@ -5835,10 +5835,10 @@
         <v>11</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.2">
@@ -5846,7 +5846,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>24</v>
@@ -5855,10 +5855,10 @@
         <v>9</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.2">
@@ -5866,7 +5866,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>24</v>
@@ -5875,10 +5875,10 @@
         <v>4</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.2">
@@ -5886,22 +5886,22 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F142" s="1">
         <v>7</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.2">
@@ -5909,22 +5909,22 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F143" s="1">
         <v>8</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.2">
@@ -5932,22 +5932,22 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F144" s="1">
         <v>8</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.2">
@@ -5955,22 +5955,22 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F145" s="1">
         <v>3</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.2">
@@ -5984,28 +5984,28 @@
         <v>33</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F146" s="1">
         <v>3</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>39</v>
@@ -6046,22 +6046,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="F147" s="1">
         <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.2">
@@ -6069,22 +6069,22 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F148" s="1">
         <v>7</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.2">
@@ -6092,22 +6092,22 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F149" s="1">
         <v>2</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>130</v>
+        <v>367</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.2">
@@ -6121,16 +6121,16 @@
         <v>24</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F150" s="1">
         <v>7</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>333</v>
+        <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.2">
@@ -6138,7 +6138,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>24</v>
@@ -6147,10 +6147,10 @@
         <v>7</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="H151" s="1" t="s">
-        <v>335</v>
+        <v>397</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.2">
@@ -6158,7 +6158,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>24</v>
@@ -6167,10 +6167,10 @@
         <v>7</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.2">
@@ -6187,10 +6187,10 @@
         <v>8</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>338</v>
+        <v>295</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.2">
@@ -6198,7 +6198,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>24</v>
@@ -6207,10 +6207,10 @@
         <v>12</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>341</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.2">
@@ -6218,22 +6218,22 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F155" s="1">
         <v>7</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.2">
@@ -6250,10 +6250,10 @@
         <v>8</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="H156" s="1" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>24</v>
@@ -6270,10 +6270,10 @@
         <v>7</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>346</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
@@ -6281,34 +6281,34 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F158" s="1">
         <v>5</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I158" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="J158" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>40</v>
@@ -6349,22 +6349,22 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F159" s="1">
         <v>4</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>347</v>
+        <v>302</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
@@ -6372,22 +6372,22 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F160" s="1">
         <v>7</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>348</v>
+        <v>303</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.2">
@@ -6395,22 +6395,22 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F161" s="1">
         <v>1</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>349</v>
+        <v>304</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.2">
@@ -6418,22 +6418,22 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="F162" s="1">
         <v>3</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.2">
@@ -6450,10 +6450,10 @@
         <v>5</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>260</v>
+        <v>227</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.2">
@@ -6461,7 +6461,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>24</v>
@@ -6473,10 +6473,10 @@
         <v>5</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="165" spans="1:23" x14ac:dyDescent="0.2">
@@ -6484,7 +6484,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>24</v>
@@ -6493,10 +6493,10 @@
         <v>5</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>354</v>
+        <v>309</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>355</v>
+        <v>310</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.2">
@@ -6513,22 +6513,22 @@
         <v>1</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>356</v>
+        <v>311</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>39</v>
@@ -6569,22 +6569,22 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F167" s="1">
         <v>5</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.2">
@@ -6592,7 +6592,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>24</v>
@@ -6601,10 +6601,10 @@
         <v>7</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.2">
@@ -6621,10 +6621,10 @@
         <v>7</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.2">
@@ -6641,10 +6641,10 @@
         <v>8</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.2">
@@ -6652,7 +6652,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>24</v>
@@ -6661,10 +6661,10 @@
         <v>8</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.2">
@@ -6672,7 +6672,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>24</v>
@@ -6681,10 +6681,10 @@
         <v>9</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.2">
@@ -6692,7 +6692,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>24</v>
@@ -6701,10 +6701,10 @@
         <v>5</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.2">
@@ -6712,7 +6712,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>24</v>
@@ -6721,10 +6721,10 @@
         <v>10</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.2">
@@ -6732,7 +6732,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>24</v>
@@ -6741,10 +6741,10 @@
         <v>11</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.2">
@@ -6752,7 +6752,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>24</v>
@@ -6761,10 +6761,10 @@
         <v>4</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="H176" s="1" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.2">
@@ -6772,7 +6772,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>24</v>
@@ -6781,10 +6781,10 @@
         <v>10</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="H177" s="1" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.2">
@@ -6792,22 +6792,22 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F178" s="1">
         <v>3</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="H178" s="1" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.2">
@@ -6815,22 +6815,22 @@
         <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F179" s="1">
         <v>5</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.2">
@@ -6841,31 +6841,31 @@
         <v>28</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F180" s="1">
         <v>3</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="H180" s="1" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>40</v>
@@ -6906,7 +6906,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>24</v>
@@ -6915,10 +6915,10 @@
         <v>7</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="H181" s="1" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.2">
@@ -6926,7 +6926,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>24</v>
@@ -6935,10 +6935,10 @@
         <v>10</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="H182" s="1" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.2">
@@ -6949,16 +6949,49 @@
         <v>32</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F183" s="1">
         <v>10</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>377</v>
+        <v>328</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V183" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W183" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.2">
@@ -6966,22 +6999,22 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F184" s="1">
         <v>5</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>378</v>
+        <v>329</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>379</v>
+        <v>330</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.2">
@@ -6989,22 +7022,22 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F185" s="1">
         <v>7</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.2">
@@ -7012,7 +7045,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>24</v>
@@ -7021,10 +7054,10 @@
         <v>12</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="H186" s="1" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.2">
@@ -7032,7 +7065,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>24</v>
@@ -7041,10 +7074,10 @@
         <v>3</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="H187" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.2">
@@ -7052,22 +7085,22 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F188" s="1">
         <v>3</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>384</v>
+        <v>405</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.2">
@@ -7075,22 +7108,22 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F189" s="1">
         <v>5</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>385</v>
+        <v>335</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.2">
@@ -7098,22 +7131,22 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F190" s="1">
         <v>4</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>387</v>
+        <v>336</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.2">
@@ -7121,22 +7154,22 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F191" s="1">
         <v>6</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.2">
@@ -7144,22 +7177,22 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F192" s="1">
         <v>6</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -7167,22 +7200,22 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F193" s="1">
         <v>7</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
@@ -7190,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F194" s="1">
         <v>8</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -7213,22 +7246,22 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F195" s="1">
         <v>9</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
@@ -7236,22 +7269,22 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F196" s="1">
         <v>10</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -7259,22 +7292,22 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F197" s="1">
         <v>10</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -7282,22 +7315,22 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F198" s="1">
         <v>10</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
@@ -7305,22 +7338,22 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F199" s="1">
         <v>11</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
@@ -7328,22 +7361,22 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F200" s="1">
         <v>12</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>404</v>
+        <v>346</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -7351,7 +7384,7 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>24</v>
@@ -7360,10 +7393,10 @@
         <v>9</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>406</v>
+        <v>347</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -7371,7 +7404,7 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>24</v>
@@ -7383,10 +7416,10 @@
         <v>9</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>407</v>
+        <v>348</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>408</v>
+        <v>349</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -7406,10 +7439,10 @@
         <v>8</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>352</v>
+        <v>307</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -7417,13 +7450,13 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E204" s="1" t="s">
         <v>39</v>
@@ -7432,7 +7465,7 @@
         <v>11</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>410</v>
+        <v>351</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -7440,19 +7473,19 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F205" s="1">
         <v>8</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -7460,7 +7493,7 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>24</v>
@@ -7469,7 +7502,7 @@
         <v>11</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>412</v>
+        <v>353</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -7486,10 +7519,10 @@
         <v>3</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -7509,10 +7542,10 @@
         <v>12</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>377</v>
+        <v>328</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -7526,7 +7559,7 @@
         <v>24</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E209" s="1" t="s">
         <v>39</v>
@@ -7535,7 +7568,7 @@
         <v>11</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>414</v>
+        <v>355</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>415</v>
